--- a/flows/EMHC_fund_flow_data.xlsx
+++ b/flows/EMHC_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B728"/>
+  <dimension ref="A1:B746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7715,6 +7715,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
